--- a/data/trans_orig/P21_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>110513</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>92557</v>
+        <v>92604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131928</v>
+        <v>130353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1891895026066918</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1584496034809446</v>
+        <v>0.1585300709908647</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2258493775898179</v>
+        <v>0.2231534276610112</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>276</v>
@@ -765,19 +765,19 @@
         <v>284914</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>258029</v>
+        <v>257341</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>314730</v>
+        <v>313048</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.308906168656132</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2797570404724463</v>
+        <v>0.2790114687690349</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3412325628861128</v>
+        <v>0.3394086874816024</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>386</v>
@@ -786,19 +786,19 @@
         <v>395428</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>361587</v>
+        <v>363461</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>430701</v>
+        <v>435706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2624855622081636</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2400220312365389</v>
+        <v>0.2412663434232195</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2859002152579848</v>
+        <v>0.2892224047916421</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>473628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452213</v>
+        <v>453788</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>491584</v>
+        <v>491537</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8108104973933082</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7741506224101823</v>
+        <v>0.7768465723389885</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8415503965190554</v>
+        <v>0.8414699290091349</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>609</v>
@@ -836,19 +836,19 @@
         <v>637419</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>607603</v>
+        <v>609285</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>664304</v>
+        <v>664992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.691093831343868</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6587674371138861</v>
+        <v>0.6605913125183982</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7202429595275537</v>
+        <v>0.7209885312309652</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1073</v>
@@ -857,19 +857,19 @@
         <v>1111046</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1075773</v>
+        <v>1070768</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1144887</v>
+        <v>1143013</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7375144377918363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7140997847420153</v>
+        <v>0.7107775952083579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.759977968763461</v>
+        <v>0.7587336565767805</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>182056</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158185</v>
+        <v>156444</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>207783</v>
+        <v>207437</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1688993228856132</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1467534201775705</v>
+        <v>0.145138994741051</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1927679566200446</v>
+        <v>0.1924466044716623</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>222</v>
@@ -982,19 +982,19 @@
         <v>231704</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>205277</v>
+        <v>206953</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>261191</v>
+        <v>260475</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2190976570814426</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1941080752824884</v>
+        <v>0.1956927713475775</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2469806433302138</v>
+        <v>0.246303556137902</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>403</v>
@@ -1003,19 +1003,19 @@
         <v>413760</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>380046</v>
+        <v>379514</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>455676</v>
+        <v>454056</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1937592318963949</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.177971427780634</v>
+        <v>0.1777222993825338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.213388409858093</v>
+        <v>0.2126296196786874</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>895838</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>870111</v>
+        <v>870457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>919709</v>
+        <v>921450</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8311006771143868</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8072320433799555</v>
+        <v>0.8075533955283377</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8532465798224295</v>
+        <v>0.8548610052589489</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>806</v>
@@ -1053,19 +1053,19 @@
         <v>825834</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>796347</v>
+        <v>797063</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>852261</v>
+        <v>850585</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7809023429185574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7530193566697863</v>
+        <v>0.753696443862098</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8058919247175116</v>
+        <v>0.8043072286524225</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1680</v>
@@ -1074,19 +1074,19 @@
         <v>1721672</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1679756</v>
+        <v>1681376</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1755386</v>
+        <v>1755918</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.806240768103605</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.786611590141907</v>
+        <v>0.7873703803213126</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8220285722193656</v>
+        <v>0.8222777006174662</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>179662</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>154015</v>
+        <v>156550</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>205663</v>
+        <v>205882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1601849236375198</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.137317611785642</v>
+        <v>0.1395778517254866</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.183366620841785</v>
+        <v>0.18356171755082</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>234</v>
@@ -1199,19 +1199,19 @@
         <v>236002</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207810</v>
+        <v>210879</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>262211</v>
+        <v>266576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2376654051618189</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2092747255820546</v>
+        <v>0.2123655514771239</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2640601567377108</v>
+        <v>0.2684550451764072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>408</v>
@@ -1220,19 +1220,19 @@
         <v>415664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>378719</v>
+        <v>380682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>451175</v>
+        <v>453669</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1965692459028942</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1790976111172981</v>
+        <v>0.1800260912831525</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2133623079779542</v>
+        <v>0.2145417901190414</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>941932</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>915931</v>
+        <v>915712</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>967579</v>
+        <v>965044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8398150763624802</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.816633379158215</v>
+        <v>0.81643828244918</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8626823882143579</v>
+        <v>0.8604221482745135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>747</v>
@@ -1270,19 +1270,19 @@
         <v>756997</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>730788</v>
+        <v>726423</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>785189</v>
+        <v>782120</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7623345948381811</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.735939843262289</v>
+        <v>0.7315449548235926</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7907252744179454</v>
+        <v>0.787634448522876</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1676</v>
@@ -1291,19 +1291,19 @@
         <v>1698930</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1663419</v>
+        <v>1660925</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1735875</v>
+        <v>1733912</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8034307540971057</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7866376920220457</v>
+        <v>0.7854582098809587</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8209023888827018</v>
+        <v>0.8199739087168475</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>80366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65850</v>
+        <v>64864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100980</v>
+        <v>97108</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1800660654019355</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1475418747743215</v>
+        <v>0.145332909129833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2262534867357736</v>
+        <v>0.21757812424502</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -1416,19 +1416,19 @@
         <v>59070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46405</v>
+        <v>46718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74762</v>
+        <v>73663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1731469502047691</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1360220057188989</v>
+        <v>0.1369405484634316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2191431295179609</v>
+        <v>0.2159191190653441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>135</v>
@@ -1437,19 +1437,19 @@
         <v>139437</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>119119</v>
+        <v>116872</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>163074</v>
+        <v>160891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1770684863052064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1512679818713362</v>
+        <v>0.1484134675040437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2070854142692388</v>
+        <v>0.2043129258902479</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>365949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>345335</v>
+        <v>349207</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>380465</v>
+        <v>381451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8199339345980645</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7737465132642268</v>
+        <v>0.78242187575498</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8524581252256785</v>
+        <v>0.854667090870167</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>280</v>
@@ -1487,19 +1487,19 @@
         <v>282088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266396</v>
+        <v>267495</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294753</v>
+        <v>294440</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8268530497952309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.780856870482039</v>
+        <v>0.7840808809346559</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8639779942811011</v>
+        <v>0.8630594515365684</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>639</v>
@@ -1508,19 +1508,19 @@
         <v>648036</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>624399</v>
+        <v>626582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668354</v>
+        <v>670601</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8229315136947936</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7929145857307612</v>
+        <v>0.7956870741097523</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8487320181286642</v>
+        <v>0.8515865324959568</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>552598</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>507669</v>
+        <v>509582</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>594486</v>
+        <v>594501</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1710857984317981</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1571757773352506</v>
+        <v>0.157768003880003</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1840545697740361</v>
+        <v>0.1840593070124439</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>791</v>
@@ -1633,19 +1633,19 @@
         <v>811690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>760399</v>
+        <v>759652</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>857748</v>
+        <v>860663</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2449256408888594</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2294484279808134</v>
+        <v>0.2292231047596845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2588234955376796</v>
+        <v>0.2597029300353109</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1332</v>
@@ -1654,19 +1654,19 @@
         <v>1364288</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1298494</v>
+        <v>1305212</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1433890</v>
+        <v>1435612</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2084801054126597</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.198425981210904</v>
+        <v>0.1994526357933536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2191162240293576</v>
+        <v>0.2193792718534305</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2677346</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2635458</v>
+        <v>2635443</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2722275</v>
+        <v>2720362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8289142015682019</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8159454302259642</v>
+        <v>0.8159406929875562</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8428242226647494</v>
+        <v>0.8422319961199971</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2442</v>
@@ -1704,19 +1704,19 @@
         <v>2502338</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2456280</v>
+        <v>2453365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2553629</v>
+        <v>2554376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7550743591111406</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7411765044623203</v>
+        <v>0.7402970699646891</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7705515720191866</v>
+        <v>0.7707768952403155</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5068</v>
@@ -1725,19 +1725,19 @@
         <v>5179684</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5110082</v>
+        <v>5108360</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5245478</v>
+        <v>5238760</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7915198945873403</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7808837759706423</v>
+        <v>0.7806207281465696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.801574018789096</v>
+        <v>0.8005473642066464</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>235764</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>206578</v>
+        <v>206297</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>263325</v>
+        <v>265373</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2262063060472039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1982031429246663</v>
+        <v>0.1979331722561519</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.252649164801544</v>
+        <v>0.2546144575957452</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>366</v>
@@ -2090,19 +2090,19 @@
         <v>394346</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>360735</v>
+        <v>362343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>423485</v>
+        <v>430377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.352422600402888</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3223841728493594</v>
+        <v>0.3238212861623267</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3784629618509393</v>
+        <v>0.3846228667459379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>589</v>
@@ -2111,19 +2111,19 @@
         <v>630111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>586510</v>
+        <v>585697</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>670615</v>
+        <v>676387</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2915542917401364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2713801796089504</v>
+        <v>0.2710038849281647</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3102958759412911</v>
+        <v>0.3129665804042337</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>806490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>778929</v>
+        <v>776881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>835676</v>
+        <v>835957</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7737936939527961</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.747350835198456</v>
+        <v>0.7453855424042547</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8017968570753337</v>
+        <v>0.8020668277438482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>664</v>
@@ -2161,19 +2161,19 @@
         <v>724613</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>695474</v>
+        <v>688582</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>758224</v>
+        <v>756616</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.647577399597112</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6215370381490607</v>
+        <v>0.6153771332540621</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6776158271506406</v>
+        <v>0.6761787138376733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1417</v>
@@ -2182,19 +2182,19 @@
         <v>1531102</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1490598</v>
+        <v>1484826</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1574703</v>
+        <v>1575516</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7084457082598635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6897041240587091</v>
+        <v>0.6870334195957662</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7286198203910497</v>
+        <v>0.7289961150718349</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>204794</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>177133</v>
+        <v>179142</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233091</v>
+        <v>232389</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2098141634865496</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1814750334014431</v>
+        <v>0.1835333199448568</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2388051950596127</v>
+        <v>0.2380856523526282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>261</v>
@@ -2307,19 +2307,19 @@
         <v>281516</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>252293</v>
+        <v>252369</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>310179</v>
+        <v>312624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2575429983757152</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2308088504065812</v>
+        <v>0.2308780584102598</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2837651003098728</v>
+        <v>0.2860021862880954</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>449</v>
@@ -2328,19 +2328,19 @@
         <v>486310</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>445344</v>
+        <v>445362</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>525473</v>
+        <v>524079</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2350281167520502</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.215229567698611</v>
+        <v>0.2152384600918001</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2539548849471668</v>
+        <v>0.2532814109984363</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>771279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>742982</v>
+        <v>743684</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>798940</v>
+        <v>796931</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7901858365134503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7611948049403872</v>
+        <v>0.7619143476473716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8185249665985569</v>
+        <v>0.8164666800551431</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>758</v>
@@ -2378,19 +2378,19 @@
         <v>811568</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>782905</v>
+        <v>780460</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>840791</v>
+        <v>840715</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7424570016242847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7162348996901271</v>
+        <v>0.7139978137119046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7691911495934188</v>
+        <v>0.7691219415897402</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1493</v>
@@ -2399,19 +2399,19 @@
         <v>1582848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1543685</v>
+        <v>1545079</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1623814</v>
+        <v>1623796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7649718832479498</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7460451150528333</v>
+        <v>0.7467185890015638</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7847704323013893</v>
+        <v>0.7847615399082001</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>181215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157903</v>
+        <v>155579</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206720</v>
+        <v>206364</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2047357341497692</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1783980211137844</v>
+        <v>0.1757724361326529</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.233551549733989</v>
+        <v>0.2331488277247828</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>181</v>
@@ -2524,19 +2524,19 @@
         <v>194584</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>172109</v>
+        <v>171423</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>220111</v>
+        <v>221351</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2224232077903038</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1967329201233172</v>
+        <v>0.1959490615059095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2516025804224522</v>
+        <v>0.2530197071002863</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>354</v>
@@ -2545,19 +2545,19 @@
         <v>375799</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>339285</v>
+        <v>340575</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>411056</v>
+        <v>412508</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2135278229159017</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.192780870166882</v>
+        <v>0.1935137966780836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2335610689772048</v>
+        <v>0.2343859917858835</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>703900</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>678395</v>
+        <v>678751</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>727212</v>
+        <v>729536</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7952642658502308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.766448450266011</v>
+        <v>0.7668511722752172</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8216019788862157</v>
+        <v>0.8242275638673472</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>639</v>
@@ -2595,19 +2595,19 @@
         <v>680253</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>654726</v>
+        <v>653486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>702728</v>
+        <v>703414</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7775767922096962</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7483974195775477</v>
+        <v>0.7469802928997137</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8032670798766826</v>
+        <v>0.8040509384940906</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1296</v>
@@ -2616,19 +2616,19 @@
         <v>1384153</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1348896</v>
+        <v>1347444</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1420667</v>
+        <v>1419377</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7864721770840982</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7664389310227951</v>
+        <v>0.7656140082141164</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8072191298331177</v>
+        <v>0.8064862033219161</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>82739</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>66201</v>
+        <v>65144</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>101226</v>
+        <v>101370</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1644838911062788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1316066913683867</v>
+        <v>0.1295056970672184</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2012356204726164</v>
+        <v>0.2015224549921265</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>95</v>
@@ -2741,19 +2741,19 @@
         <v>103109</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85964</v>
+        <v>86514</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123293</v>
+        <v>123552</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2277464439507522</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1898765553297273</v>
+        <v>0.191090466350643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2723296513007211</v>
+        <v>0.2728997493643397</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>172</v>
@@ -2762,19 +2762,19 @@
         <v>185848</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>160077</v>
+        <v>161609</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>211852</v>
+        <v>211262</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1944508926236582</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1674874625903358</v>
+        <v>0.1690896097139135</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2216583037383226</v>
+        <v>0.2210412573186198</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>420284</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>401797</v>
+        <v>401653</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>436822</v>
+        <v>437879</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8355161088937212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7987643795273836</v>
+        <v>0.798477545007873</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8683933086316133</v>
+        <v>0.8704943029327814</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>317</v>
@@ -2812,19 +2812,19 @@
         <v>349627</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>329443</v>
+        <v>329184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366772</v>
+        <v>366222</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7722535560492477</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7276703486992788</v>
+        <v>0.7271002506356602</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8101234446702726</v>
+        <v>0.8089095336493567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>701</v>
@@ -2833,19 +2833,19 @@
         <v>769910</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>743906</v>
+        <v>744496</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>795681</v>
+        <v>794149</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8055491073763419</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7783416962616773</v>
+        <v>0.7789587426813802</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8325125374096641</v>
+        <v>0.8309103902860864</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>704512</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>660115</v>
+        <v>659700</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>755172</v>
+        <v>756762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2068162235585129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1937829651312546</v>
+        <v>0.1936613612087311</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2216878730320237</v>
+        <v>0.2221547545404551</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>903</v>
@@ -2958,19 +2958,19 @@
         <v>973556</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>915567</v>
+        <v>914611</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1027090</v>
+        <v>1022562</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2750455700570141</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2586626923731312</v>
+        <v>0.2583925975982326</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2901699977669333</v>
+        <v>0.2888907833396711</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1564</v>
@@ -2979,19 +2979,19 @@
         <v>1678068</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1606247</v>
+        <v>1600499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1747943</v>
+        <v>1752370</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2415848522807136</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2312450113709098</v>
+        <v>0.2304175553364083</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2516444465123056</v>
+        <v>0.2522818964233811</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2701952</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2651292</v>
+        <v>2649702</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2746349</v>
+        <v>2746764</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7931837764414871</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7783121269679764</v>
+        <v>0.7778452454595448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8062170348687454</v>
+        <v>0.8063386387912689</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2378</v>
@@ -3029,19 +3029,19 @@
         <v>2566060</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2512526</v>
+        <v>2517054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2624049</v>
+        <v>2625005</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7249544299429859</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7098300022330667</v>
+        <v>0.7111092166603289</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7413373076268688</v>
+        <v>0.7416074024017674</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4907</v>
@@ -3050,19 +3050,19 @@
         <v>5268013</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5198138</v>
+        <v>5193711</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5339834</v>
+        <v>5345582</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7584151477192864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7483555534876947</v>
+        <v>0.7477181035766189</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7687549886290903</v>
+        <v>0.7695824446635917</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>209953</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>184067</v>
+        <v>184257</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>236176</v>
+        <v>237647</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1863384722683564</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1633637236992205</v>
+        <v>0.1635321888991603</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2096118894569171</v>
+        <v>0.2109169796484212</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>262</v>
@@ -3415,19 +3415,19 @@
         <v>284081</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>255853</v>
+        <v>256698</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>316594</v>
+        <v>317224</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2256953645554962</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2032690553401772</v>
+        <v>0.2039399712811839</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2515263718767632</v>
+        <v>0.2520268420883093</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -3436,19 +3436,19 @@
         <v>494034</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>454783</v>
+        <v>454960</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>533742</v>
+        <v>534043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.207105535163775</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1906506745685651</v>
+        <v>0.1907252028405853</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2237516931414577</v>
+        <v>0.2238778864764706</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>916778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>890555</v>
+        <v>889084</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>942664</v>
+        <v>942474</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8136615277316437</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7903881105430831</v>
+        <v>0.789083020351579</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8366362763007796</v>
+        <v>0.8364678111008397</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>925</v>
@@ -3486,19 +3486,19 @@
         <v>974612</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>942099</v>
+        <v>941469</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1002840</v>
+        <v>1001995</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7743046354445039</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7484736281232368</v>
+        <v>0.7479731579116908</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7967309446598229</v>
+        <v>0.7960600287188161</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1794</v>
@@ -3507,19 +3507,19 @@
         <v>1891389</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1851681</v>
+        <v>1851380</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1930640</v>
+        <v>1930463</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7928944648362249</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7762483068585424</v>
+        <v>0.7761221135235294</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8093493254314351</v>
+        <v>0.8092747971594149</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>149729</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>127726</v>
+        <v>127565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>174193</v>
+        <v>174416</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1653966924383619</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1410909776756987</v>
+        <v>0.1409133170828661</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1924198074772886</v>
+        <v>0.1926666110372261</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>185</v>
@@ -3632,19 +3632,19 @@
         <v>202371</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>178274</v>
+        <v>179128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231161</v>
+        <v>233356</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2013228894621449</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1773515314225579</v>
+        <v>0.1782006309273124</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2299647187663087</v>
+        <v>0.2321481543931175</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -3653,19 +3653,19 @@
         <v>352100</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>319597</v>
+        <v>315359</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>389061</v>
+        <v>388084</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1842993626490564</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1672863281904101</v>
+        <v>0.1650681255149665</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2036457713837565</v>
+        <v>0.2031341495767429</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>755546</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>731082</v>
+        <v>730859</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>777549</v>
+        <v>777710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8346033075616381</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8075801925227114</v>
+        <v>0.8073333889627737</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8589090223243013</v>
+        <v>0.8590866829171339</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>765</v>
@@ -3703,19 +3703,19 @@
         <v>802833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>774043</v>
+        <v>771848</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>826930</v>
+        <v>826076</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7986771105378551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7700352812336914</v>
+        <v>0.7678518456068822</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8226484685774421</v>
+        <v>0.8217993690726875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1499</v>
@@ -3724,19 +3724,19 @@
         <v>1558380</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1521419</v>
+        <v>1522396</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1590883</v>
+        <v>1595121</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8157006373509436</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7963542286162435</v>
+        <v>0.7968658504232569</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.83271367180959</v>
+        <v>0.8349318744850335</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>114195</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94112</v>
+        <v>95247</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134858</v>
+        <v>137424</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1392950817366911</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1147982070895532</v>
+        <v>0.1161824879993455</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1645008072541453</v>
+        <v>0.1676305479134592</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>151</v>
@@ -3849,19 +3849,19 @@
         <v>158700</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137179</v>
+        <v>136327</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184384</v>
+        <v>181572</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2060567263268417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1781139753584433</v>
+        <v>0.1770080882169799</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.239405403312518</v>
+        <v>0.2357545758727728</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>257</v>
@@ -3870,19 +3870,19 @@
         <v>272894</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243876</v>
+        <v>246810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>304956</v>
+        <v>308063</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1716339754454525</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1533835245940571</v>
+        <v>0.1552286963496364</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.191798825895587</v>
+        <v>0.1937528814734139</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>705608</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>684945</v>
+        <v>682379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>725691</v>
+        <v>724556</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8607049182633089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8354991927458547</v>
+        <v>0.8323694520865409</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8852017929104468</v>
+        <v>0.8838175120006547</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>576</v>
@@ -3920,19 +3920,19 @@
         <v>611474</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>585790</v>
+        <v>588602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>632995</v>
+        <v>633847</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7939432736731583</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7605945966874822</v>
+        <v>0.7642454241272273</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8218860246415569</v>
+        <v>0.8229919117830201</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1253</v>
@@ -3941,19 +3941,19 @@
         <v>1317083</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1285021</v>
+        <v>1281914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1346101</v>
+        <v>1343167</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8283660245545474</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8082011741044132</v>
+        <v>0.8062471185265861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8466164754059432</v>
+        <v>0.8447713036503635</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>86855</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71346</v>
+        <v>70940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>106465</v>
+        <v>105223</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1717363475464459</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1410701656678876</v>
+        <v>0.1402681468372202</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2105109895919333</v>
+        <v>0.2080544871863968</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>105</v>
@@ -4066,19 +4066,19 @@
         <v>111521</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91258</v>
+        <v>93126</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130676</v>
+        <v>131735</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2285835325788138</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1870515233578817</v>
+        <v>0.1908793482002341</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2678456993787611</v>
+        <v>0.2700167029018818</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>185</v>
@@ -4087,19 +4087,19 @@
         <v>198376</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174436</v>
+        <v>173409</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223346</v>
+        <v>226818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1996488311904262</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1755553748617827</v>
+        <v>0.1745214736174237</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2247791973770697</v>
+        <v>0.2282735428924697</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>418890</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>399280</v>
+        <v>400522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>434399</v>
+        <v>434805</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.828263652453554</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7894890104080667</v>
+        <v>0.7919455128136031</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8589298343321123</v>
+        <v>0.8597318531627793</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -4137,19 +4137,19 @@
         <v>376357</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>357202</v>
+        <v>356143</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>396620</v>
+        <v>394752</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7714164674211862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7321543006212391</v>
+        <v>0.7299832970981179</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8129484766421187</v>
+        <v>0.8091206517997658</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>739</v>
@@ -4158,19 +4158,19 @@
         <v>795248</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>770278</v>
+        <v>766806</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>819188</v>
+        <v>820215</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8003511688095738</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7752208026229305</v>
+        <v>0.77172645710753</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8244446251382174</v>
+        <v>0.8254785263825761</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>560732</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>514568</v>
+        <v>517337</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>602717</v>
+        <v>608150</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1670061433125204</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1532568727725979</v>
+        <v>0.1540813998905597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1795107869448336</v>
+        <v>0.1811287946182617</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>703</v>
@@ -4283,19 +4283,19 @@
         <v>756672</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>703906</v>
+        <v>710200</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>808411</v>
+        <v>813600</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2148447222209978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.19986264813741</v>
+        <v>0.2016495860489227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2295349488125385</v>
+        <v>0.231008453522058</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1229</v>
@@ -4304,19 +4304,19 @@
         <v>1317404</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1251843</v>
+        <v>1248709</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1388268</v>
+        <v>1382532</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1914970176119039</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1819669993712431</v>
+        <v>0.1815115010140185</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2017977057905826</v>
+        <v>0.2009638416019473</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2796822</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2754837</v>
+        <v>2749404</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2842986</v>
+        <v>2840217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8329938566874795</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8204892130551671</v>
+        <v>0.8188712053817386</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8467431272274026</v>
+        <v>0.8459186001094404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2615</v>
@@ -4354,19 +4354,19 @@
         <v>2765278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2713539</v>
+        <v>2708350</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2818044</v>
+        <v>2811750</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7851552777790022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7704650511874614</v>
+        <v>0.768991546477942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8001373518625899</v>
+        <v>0.7983504139510773</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5285</v>
@@ -4375,19 +4375,19 @@
         <v>5562100</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5491236</v>
+        <v>5496972</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5627661</v>
+        <v>5630795</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8085029823880961</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7982022942094174</v>
+        <v>0.7990361583980525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8180330006287568</v>
+        <v>0.8184884989859815</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>123390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>102997</v>
+        <v>103309</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>144527</v>
+        <v>145395</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2474044627558552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.206514306694337</v>
+        <v>0.207140541522774</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2897839120526221</v>
+        <v>0.2915260421643346</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>273</v>
@@ -4740,19 +4740,19 @@
         <v>192289</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>172811</v>
+        <v>171527</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>212294</v>
+        <v>212995</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3083622796289751</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2771267533368367</v>
+        <v>0.2750681785329636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3404437823387765</v>
+        <v>0.3415682262141387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>393</v>
@@ -4761,19 +4761,19 @@
         <v>315679</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>284702</v>
+        <v>286296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>344272</v>
+        <v>345226</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2812736846196225</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2536727957263084</v>
+        <v>0.2550931402078256</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3067501121009449</v>
+        <v>0.3076005537576645</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>375349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>354212</v>
+        <v>353344</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>395742</v>
+        <v>395430</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7525955372441447</v>
+        <v>0.7525955372441449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7102160879473779</v>
+        <v>0.7084739578356655</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7934856933056629</v>
+        <v>0.7928594584772261</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>588</v>
@@ -4811,19 +4811,19 @@
         <v>431291</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>411286</v>
+        <v>410585</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>450769</v>
+        <v>452053</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6916377203710248</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6595562176612233</v>
+        <v>0.6584317737858614</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7228732466631633</v>
+        <v>0.7249318214670364</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>923</v>
@@ -4832,19 +4832,19 @@
         <v>806641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>778048</v>
+        <v>777094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>837618</v>
+        <v>836024</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7187263153803776</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6932498878990551</v>
+        <v>0.6923994462423356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7463272042736915</v>
+        <v>0.7449068597921742</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>169760</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>146316</v>
+        <v>145399</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>196935</v>
+        <v>198430</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1768076230942561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1523912213838841</v>
+        <v>0.1514356506266793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2051113458086365</v>
+        <v>0.2066682784602285</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>381</v>
@@ -4957,19 +4957,19 @@
         <v>255046</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>230085</v>
+        <v>232705</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>276692</v>
+        <v>282081</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2288314835315175</v>
+        <v>0.2288314835315174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2064358946236288</v>
+        <v>0.20878710644359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2482526582854092</v>
+        <v>0.2530875631607314</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>551</v>
@@ -4978,19 +4978,19 @@
         <v>424805</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>386888</v>
+        <v>387609</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>460050</v>
+        <v>459458</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2047556276848282</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1864797829949912</v>
+        <v>0.186827184991368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2217437007258752</v>
+        <v>0.2214581149962268</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>790377</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>763202</v>
+        <v>761707</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>813821</v>
+        <v>814738</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.823192376905744</v>
+        <v>0.8231923769057439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7948886541913637</v>
+        <v>0.7933317215397712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8476087786161161</v>
+        <v>0.8485643493733201</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1224</v>
@@ -5028,19 +5028,19 @@
         <v>859511</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>837865</v>
+        <v>832476</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>884472</v>
+        <v>881852</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7711685164684828</v>
+        <v>0.7711685164684823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7517473417145912</v>
+        <v>0.7469124368392686</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7935641053763715</v>
+        <v>0.7912128935564101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1964</v>
@@ -5049,19 +5049,19 @@
         <v>1649888</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1614643</v>
+        <v>1615235</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1687805</v>
+        <v>1687084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7952443723151719</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7782562992741249</v>
+        <v>0.7785418850037732</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8135202170050089</v>
+        <v>0.8131728150086313</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>198558</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171521</v>
+        <v>170304</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>226025</v>
+        <v>228734</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1897391652020493</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1639029098287079</v>
+        <v>0.1627403885892299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2159864396605174</v>
+        <v>0.2185751160337741</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>378</v>
@@ -5174,19 +5174,19 @@
         <v>265581</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>241814</v>
+        <v>242453</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>290084</v>
+        <v>290701</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2540428289876644</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2313080979703689</v>
+        <v>0.2319193923821707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2774817722293598</v>
+        <v>0.2780718776432263</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>572</v>
@@ -5195,19 +5195,19 @@
         <v>464139</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>426250</v>
+        <v>426877</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>506589</v>
+        <v>501210</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2218746799607541</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2037626073139416</v>
+        <v>0.2040620820127672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2421671436394798</v>
+        <v>0.2395959183387139</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>847921</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>820454</v>
+        <v>817745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874958</v>
+        <v>876175</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8102608347979507</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7840135603394827</v>
+        <v>0.7814248839662258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8360970901712917</v>
+        <v>0.8372596114107701</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1137</v>
@@ -5245,19 +5245,19 @@
         <v>779837</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>755334</v>
+        <v>754717</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>803604</v>
+        <v>802965</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7459571710123356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7225182277706402</v>
+        <v>0.7219281223567737</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.768691902029631</v>
+        <v>0.7680806076178293</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1972</v>
@@ -5266,19 +5266,19 @@
         <v>1627758</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1585308</v>
+        <v>1590687</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1665647</v>
+        <v>1665020</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7781253200392462</v>
+        <v>0.7781253200392459</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7578328563605203</v>
+        <v>0.7604040816612863</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7962373926860583</v>
+        <v>0.7959379179872328</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>232295</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>200502</v>
+        <v>206815</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>260521</v>
+        <v>268134</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2385059053711497</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2058633643872012</v>
+        <v>0.2123449271444126</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2674863235090559</v>
+        <v>0.2753030453282022</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>264</v>
@@ -5391,19 +5391,19 @@
         <v>208385</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>183754</v>
+        <v>185928</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>233705</v>
+        <v>233119</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2300577316098228</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2028651909165242</v>
+        <v>0.2052642313381286</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2580111557132626</v>
+        <v>0.2573641060021316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>469</v>
@@ -5412,19 +5412,19 @@
         <v>440680</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>403662</v>
+        <v>405394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>481887</v>
+        <v>482306</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2344349889575115</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2147420076472678</v>
+        <v>0.2156631946672156</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2563560693154879</v>
+        <v>0.2565791051877601</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>741664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>713438</v>
+        <v>705825</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>773457</v>
+        <v>767144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7614940946288503</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7325136764909438</v>
+        <v>0.7246969546717976</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7941366356127986</v>
+        <v>0.7876550728555872</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1053</v>
@@ -5462,19 +5462,19 @@
         <v>697411</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>672091</v>
+        <v>672677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>722042</v>
+        <v>719868</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7699422683901772</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7419888442867373</v>
+        <v>0.7426358939978683</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.797134809083476</v>
+        <v>0.7947357686618713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1794</v>
@@ -5483,19 +5483,19 @@
         <v>1439075</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1397868</v>
+        <v>1397449</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1476093</v>
+        <v>1474361</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7655650110424885</v>
+        <v>0.7655650110424884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7436439306845122</v>
+        <v>0.7434208948122401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7852579923527321</v>
+        <v>0.7843368053327845</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>724003</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>676737</v>
+        <v>673806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>775466</v>
+        <v>781913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2080878093275991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1945030704951865</v>
+        <v>0.1936606163040853</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2228790594307945</v>
+        <v>0.2247320685855846</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1296</v>
@@ -5608,19 +5608,19 @@
         <v>921301</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>874556</v>
+        <v>875566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>969335</v>
+        <v>968998</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2497188839054003</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2370487501313941</v>
+        <v>0.2373224633458316</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2627386640831578</v>
+        <v>0.2626472039971431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1985</v>
@@ -5629,19 +5629,19 @@
         <v>1645303</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1571484</v>
+        <v>1570018</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1718582</v>
+        <v>1716160</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2295132278164699</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.219215682218787</v>
+        <v>0.2190111681261708</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2397352569192074</v>
+        <v>0.2393973954861864</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2755311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2703848</v>
+        <v>2697401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2802577</v>
+        <v>2805508</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7919121906724007</v>
+        <v>0.7919121906724009</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7771209405692056</v>
+        <v>0.7752679314144152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8054969295048133</v>
+        <v>0.8063393836959145</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4002</v>
@@ -5679,19 +5679,19 @@
         <v>2768050</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2720016</v>
+        <v>2720353</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2814795</v>
+        <v>2813785</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7502811160945998</v>
+        <v>0.7502811160945997</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7372613359168423</v>
+        <v>0.737352796002857</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7629512498686059</v>
+        <v>0.7626775366541684</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6653</v>
@@ -5700,19 +5700,19 @@
         <v>5523362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5450083</v>
+        <v>5452505</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5597181</v>
+        <v>5598647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.77048677218353</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7602647430807925</v>
+        <v>0.7606026045138138</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7807843177812129</v>
+        <v>0.7809888318738293</v>
       </c>
     </row>
     <row r="18">
